--- a/documentation/timemanagment/astl-timemanagment.xlsx
+++ b/documentation/timemanagment/astl-timemanagment.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -83,6 +83,42 @@
     <t xml:space="preserve">Beschreibung Klassen Klassendiagramm</t>
   </si>
   <si>
+    <t xml:space="preserve">Einarbeitung, Dokumentation lesen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MySQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software/System Design und Architektur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erstellen MySQL Datenbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einrichtung MySQL Workbench</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einrichtung Verbindung Datenbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konfiguration und Deployment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fehlerbehebung Datetime-error Datenbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erstellung Tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy-Daten in Datenbank einfügen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koordination und Projektmanagement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team-Meeting, Abstimmung Status</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
@@ -98,22 +134,10 @@
     <t xml:space="preserve">Abschlusspräsentation</t>
   </si>
   <si>
-    <t xml:space="preserve">Einarbeitung, Dokumentation lesen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software/System Design und Architektur</t>
-  </si>
-  <si>
     <t xml:space="preserve">Implementierung</t>
   </si>
   <si>
     <t xml:space="preserve">Tests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Konfiguration und Deployment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koordination und Projektmanagement</t>
   </si>
 </sst>
 </file>
@@ -354,20 +378,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11"/>
@@ -485,9 +509,146 @@
         <v>12</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>44277.3</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>44283.3</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>44283.3</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="n">
+        <v>44283.3</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="n">
+        <v>44289.3</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="n">
+        <v>44289.3</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="n">
+        <v>44294.3</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="n">
+        <v>44296.3</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="n">
+        <v>44296.3</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="n">
+        <v>44297.3</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C8" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C18" type="list">
       <formula1>Tätigkeiten!$B$2:$B$12</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -522,10 +683,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -549,7 +710,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -557,7 +718,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -565,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -573,7 +734,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -581,7 +742,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -589,7 +750,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -597,7 +758,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -605,7 +766,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
